--- a/Data/Processing/2024-02-02/SUNDARMFIN.xlsx
+++ b/Data/Processing/2024-02-02/SUNDARMFIN.xlsx
@@ -716,7 +716,7 @@
         <v>2281.76</v>
       </c>
       <c r="C4">
-        <v>2304.91</v>
+        <v>2304.9</v>
       </c>
       <c r="D4">
         <v>2270.28</v>
